--- a/raw_data/analysis_data.xlsx
+++ b/raw_data/analysis_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tubing_ANSYS\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAAF288-D593-4BDE-A257-23254EB8D850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A6AFA6-4973-414E-B45B-A4D51884D18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{695A0ADD-CFEA-4A8F-9368-815F972A7B95}"/>
+    <workbookView xWindow="3840" yWindow="3045" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{695A0ADD-CFEA-4A8F-9368-815F972A7B95}"/>
   </bookViews>
   <sheets>
     <sheet name="Operation_Conditions" sheetId="1" r:id="rId1"/>
@@ -35,21 +35,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nominal</t>
-  </si>
-  <si>
-    <t>Press. Int.</t>
-  </si>
-  <si>
-    <t>Press. Ext.</t>
-  </si>
-  <si>
-    <t>Temp. Int.</t>
-  </si>
-  <si>
-    <t>Temp. Ext.</t>
-  </si>
-  <si>
-    <t>Load in X</t>
   </si>
   <si>
     <t>Minimum</t>
@@ -87,6 +72,21 @@
   </si>
   <si>
     <t>Mission Data</t>
+  </si>
+  <si>
+    <t>Int. Press.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ext. Press. </t>
+  </si>
+  <si>
+    <t>Int. Temp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ext. Temp. </t>
+  </si>
+  <si>
+    <t>X Axis Load</t>
   </si>
 </sst>
 </file>
@@ -423,6 +423,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,12 +448,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,13 +457,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,37 +783,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
+      <c r="A1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="14">
         <v>1000</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8">
         <v>1500</v>
@@ -886,7 +886,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,488 +895,488 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="26">
         <v>100</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="27">
         <v>2.9</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="27">
         <v>-50</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="27">
         <v>59</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="28">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="18">
         <v>100</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <v>2.9</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>-50</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>59</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="19">
         <v>17.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="18">
         <v>100</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>2.9</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="17">
         <v>-50</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="17">
         <v>59</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="18">
         <v>100</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>8.5</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="17">
         <v>0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>404.5</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="18">
         <v>100</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>8.5</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="17">
         <v>0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>404.5</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="19">
         <v>17.5</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="18">
         <v>100</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>8.5</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="17">
         <v>0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>404.5</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="18">
         <v>100</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>14</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="17">
         <v>110</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <v>750</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="18">
         <v>100</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="17">
         <v>14</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="17">
         <v>110</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>750</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="19">
         <v>17.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="18">
         <v>100</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <v>14</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="17">
         <v>110</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>750</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="18">
         <v>1250</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="17">
         <v>2.9</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="17">
         <v>0</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>750</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="18">
         <v>1250</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="17">
         <v>2.9</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="17">
         <v>0</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="17">
         <v>750</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="19">
         <v>17.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="18">
         <v>1250</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="17">
         <v>2.9</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="17">
         <v>0</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>750</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="18">
         <v>1250</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="17">
         <v>8.5</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="17">
         <v>110</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="17">
         <v>59</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="18">
         <v>1250</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="17">
         <v>8.5</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="17">
         <v>110</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>59</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="19">
         <v>17.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="18">
         <v>1250</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="17">
         <v>8.5</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="17">
         <v>110</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="17">
         <v>59</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="18">
         <v>1250</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="17">
         <v>14</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <v>-50</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>404.5</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="18">
         <v>1250</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="17">
         <v>14</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="17">
         <v>-50</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="17">
         <v>404.5</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="19">
         <v>17.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="18">
         <v>1250</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="17">
         <v>14</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="17">
         <v>-50</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="17">
         <v>404.5</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="18">
         <v>1500</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="17">
         <v>2.9</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="17">
         <v>110</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="17">
         <v>404.5</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="18">
         <v>1500</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="17">
         <v>2.9</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="17">
         <v>110</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <v>404.5</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="19">
         <v>17.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="18">
         <v>1500</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="17">
         <v>2.9</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="17">
         <v>110</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="17">
         <v>404.5</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="18">
         <v>1500</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="17">
         <v>8.5</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="17">
         <v>-50</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="17">
         <v>750</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="18">
         <v>1500</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="17">
         <v>8.5</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="17">
         <v>-50</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="17">
         <v>750</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="19">
         <v>17.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="18">
         <v>1500</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="17">
         <v>8.5</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="17">
         <v>-50</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="17">
         <v>750</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27" s="18">
         <v>1500</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="17">
         <v>14</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="17">
         <v>0</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="17">
         <v>59</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="18">
         <v>1500</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="17">
         <v>14</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="17">
         <v>0</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="17">
         <v>59</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="19">
         <v>17.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
+      <c r="A29" s="20">
         <v>1500</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="21">
         <v>14</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="21">
         <v>0</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="21">
         <v>59</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="22">
         <v>20</v>
       </c>
     </row>
@@ -1399,12 +1399,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E659FD1A52EBC42B29218E56009DBA2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec4e5180933af768aeb97f9cd9ea2235">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="213bcac9-f85c-4f59-b89a-dd7c32c265f8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c6ebe77d158ec7cba9e2e3a6d8e82f8f" ns2:_="">
     <xsd:import namespace="213bcac9-f85c-4f59-b89a-dd7c32c265f8"/>
@@ -1536,6 +1530,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFC56FB1-7053-41F0-99D2-6554EBF6D7FA}">
   <ds:schemaRefs>
@@ -1545,22 +1545,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2854E931-86AC-4D2C-B90B-8B692B570455}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="213bcac9-f85c-4f59-b89a-dd7c32c265f8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CBF9C55-4FFA-4510-A636-A6709925C46B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1576,4 +1560,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2854E931-86AC-4D2C-B90B-8B692B570455}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="213bcac9-f85c-4f59-b89a-dd7c32c265f8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>